--- a/문서/자유수강권자 추가 환불(3월)/마술(강사).xlsx
+++ b/문서/자유수강권자 추가 환불(3월)/마술(강사).xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="25">
   <si>
     <t>주야</t>
   </si>
@@ -50,6 +50,12 @@
   </si>
   <si>
     <t>고건</t>
+  </si>
+  <si>
+    <t>7</t>
+  </si>
+  <si>
+    <t>김민성</t>
   </si>
   <si>
     <t>4반</t>
@@ -90,7 +96,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="39">
+  <fonts count="46">
     <font>
       <name val="Arial"/>
       <family val="2"/>
@@ -371,8 +377,57 @@
       <color rgb="00000000"/>
       <sz val="11"/>
     </font>
+    <font>
+      <name val="돋움"/>
+      <charset val="129"/>
+      <family val="3"/>
+      <color rgb="00000000"/>
+      <sz val="11"/>
+    </font>
+    <font>
+      <name val="돋움"/>
+      <charset val="129"/>
+      <family val="3"/>
+      <color rgb="00000000"/>
+      <sz val="11"/>
+    </font>
+    <font>
+      <name val="돋움"/>
+      <charset val="129"/>
+      <family val="3"/>
+      <color rgb="00000000"/>
+      <sz val="11"/>
+    </font>
+    <font>
+      <name val="돋움"/>
+      <charset val="129"/>
+      <family val="3"/>
+      <color rgb="00000000"/>
+      <sz val="11"/>
+    </font>
+    <font>
+      <name val="돋움"/>
+      <charset val="129"/>
+      <family val="3"/>
+      <color rgb="00000000"/>
+      <sz val="11"/>
+    </font>
+    <font>
+      <name val="돋움"/>
+      <charset val="129"/>
+      <family val="3"/>
+      <color rgb="00000000"/>
+      <sz val="11"/>
+    </font>
+    <font>
+      <name val="돋움"/>
+      <charset val="129"/>
+      <family val="3"/>
+      <color rgb="00000000"/>
+      <sz val="11"/>
+    </font>
   </fonts>
-  <fills count="37">
+  <fills count="44">
     <fill>
       <patternFill/>
     </fill>
@@ -484,8 +539,29 @@
     <fill>
       <patternFill/>
     </fill>
+    <fill>
+      <patternFill/>
+    </fill>
+    <fill>
+      <patternFill/>
+    </fill>
+    <fill>
+      <patternFill/>
+    </fill>
+    <fill>
+      <patternFill/>
+    </fill>
+    <fill>
+      <patternFill/>
+    </fill>
+    <fill>
+      <patternFill/>
+    </fill>
+    <fill>
+      <patternFill/>
+    </fill>
   </fills>
-  <borders count="37">
+  <borders count="44">
     <border>
       <left/>
       <right/>
@@ -1033,11 +1109,116 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="8"/>
+      </left>
+      <right style="thin">
+        <color indexed="8"/>
+      </right>
+      <top style="thin">
+        <color indexed="8"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="8"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="8"/>
+      </left>
+      <right style="thin">
+        <color indexed="8"/>
+      </right>
+      <top style="thin">
+        <color indexed="8"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="8"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="8"/>
+      </left>
+      <right style="thin">
+        <color indexed="8"/>
+      </right>
+      <top style="thin">
+        <color indexed="8"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="8"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="8"/>
+      </left>
+      <right style="thin">
+        <color indexed="8"/>
+      </right>
+      <top style="thin">
+        <color indexed="8"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="8"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="8"/>
+      </left>
+      <right style="thin">
+        <color indexed="8"/>
+      </right>
+      <top style="thin">
+        <color indexed="8"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="8"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="8"/>
+      </left>
+      <right style="thin">
+        <color indexed="8"/>
+      </right>
+      <top style="thin">
+        <color indexed="8"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="8"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="8"/>
+      </left>
+      <right style="thin">
+        <color indexed="8"/>
+      </right>
+      <top style="thin">
+        <color indexed="8"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="8"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="38">
+  <cellXfs count="45">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyAlignment="1" borderId="1" fillId="0" fontId="2" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="1"/>
@@ -1182,6 +1363,34 @@
       <protection hidden="0" locked="1"/>
     </xf>
     <xf applyAlignment="1" applyProtection="1" borderId="36" fillId="36" fontId="38" numFmtId="0" xfId="0">
+      <alignment vertical="center" wrapText="1"/>
+      <protection hidden="0" locked="1"/>
+    </xf>
+    <xf applyAlignment="1" applyProtection="1" borderId="37" fillId="37" fontId="39" numFmtId="0" xfId="0">
+      <alignment vertical="center" wrapText="1"/>
+      <protection hidden="0" locked="1"/>
+    </xf>
+    <xf applyAlignment="1" applyProtection="1" borderId="38" fillId="38" fontId="40" numFmtId="0" xfId="0">
+      <alignment vertical="center" wrapText="1"/>
+      <protection hidden="0" locked="1"/>
+    </xf>
+    <xf applyAlignment="1" applyProtection="1" borderId="39" fillId="39" fontId="41" numFmtId="0" xfId="0">
+      <alignment vertical="center" wrapText="1"/>
+      <protection hidden="0" locked="1"/>
+    </xf>
+    <xf applyAlignment="1" applyProtection="1" borderId="40" fillId="40" fontId="42" numFmtId="0" xfId="0">
+      <alignment vertical="center" wrapText="1"/>
+      <protection hidden="0" locked="1"/>
+    </xf>
+    <xf applyAlignment="1" applyProtection="1" borderId="41" fillId="41" fontId="43" numFmtId="0" xfId="0">
+      <alignment vertical="center" wrapText="1"/>
+      <protection hidden="0" locked="1"/>
+    </xf>
+    <xf applyAlignment="1" applyProtection="1" borderId="42" fillId="42" fontId="44" numFmtId="0" xfId="0">
+      <alignment vertical="center" wrapText="1"/>
+      <protection hidden="0" locked="1"/>
+    </xf>
+    <xf applyAlignment="1" applyProtection="1" borderId="43" fillId="43" fontId="45" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="1"/>
       <protection hidden="0" locked="1"/>
     </xf>
@@ -1483,7 +1692,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G5"/>
+  <dimension ref="A1:G6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1545,13 +1754,13 @@
         <v>8</v>
       </c>
       <c s="19" r="C3" t="s">
+        <v>9</v>
+      </c>
+      <c s="20" r="D3" t="s">
         <v>12</v>
       </c>
-      <c s="20" r="D3" t="s">
+      <c s="21" r="E3" t="s">
         <v>13</v>
-      </c>
-      <c s="21" r="E3" t="s">
-        <v>14</v>
       </c>
       <c s="22" r="F3" t="n">
         <v>0</v>
@@ -1565,16 +1774,16 @@
         <v>7</v>
       </c>
       <c s="25" r="B4" t="s">
+        <v>8</v>
+      </c>
+      <c s="26" r="C4" t="s">
+        <v>14</v>
+      </c>
+      <c s="27" r="D4" t="s">
         <v>15</v>
       </c>
-      <c s="26" r="C4" t="s">
+      <c s="28" r="E4" t="s">
         <v>16</v>
-      </c>
-      <c s="27" r="D4" t="s">
-        <v>17</v>
-      </c>
-      <c s="28" r="E4" t="s">
-        <v>18</v>
       </c>
       <c s="29" r="F4" t="n">
         <v>0</v>
@@ -1588,21 +1797,44 @@
         <v>7</v>
       </c>
       <c s="32" r="B5" t="s">
+        <v>17</v>
+      </c>
+      <c s="33" r="C5" t="s">
+        <v>18</v>
+      </c>
+      <c s="34" r="D5" t="s">
         <v>19</v>
       </c>
-      <c s="33" r="C5" t="s">
+      <c s="35" r="E5" t="s">
         <v>20</v>
-      </c>
-      <c s="34" r="D5" t="s">
-        <v>21</v>
-      </c>
-      <c s="35" r="E5" t="s">
-        <v>22</v>
       </c>
       <c s="36" r="F5" t="n">
         <v>0</v>
       </c>
       <c s="37" r="G5" t="n">
+        <v>-25210</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
+      <c s="38" r="A6" t="s">
+        <v>7</v>
+      </c>
+      <c s="39" r="B6" t="s">
+        <v>21</v>
+      </c>
+      <c s="40" r="C6" t="s">
+        <v>22</v>
+      </c>
+      <c s="41" r="D6" t="s">
+        <v>23</v>
+      </c>
+      <c s="42" r="E6" t="s">
+        <v>24</v>
+      </c>
+      <c s="43" r="F6" t="n">
+        <v>0</v>
+      </c>
+      <c s="44" r="G6" t="n">
         <v>-25210</v>
       </c>
     </row>
